--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7301752776283</v>
+        <v>12.600084</v>
       </c>
       <c r="H2">
-        <v>11.7301752776283</v>
+        <v>37.800252</v>
       </c>
       <c r="I2">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J2">
-        <v>0.3985254423378867</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.340179392409091</v>
+        <v>0.096149</v>
       </c>
       <c r="N2">
-        <v>0.340179392409091</v>
+        <v>0.288447</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2085078145161115</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2085078145161116</v>
       </c>
       <c r="Q2">
-        <v>3.990363898795735</v>
+        <v>1.211485476516</v>
       </c>
       <c r="R2">
-        <v>3.990363898795735</v>
+        <v>10.903369288644</v>
       </c>
       <c r="S2">
-        <v>0.3985254423378867</v>
+        <v>0.08569638290504421</v>
       </c>
       <c r="T2">
-        <v>0.3985254423378867</v>
+        <v>0.08569638290504422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.2925204532879</v>
+        <v>12.600084</v>
       </c>
       <c r="H3">
-        <v>17.2925204532879</v>
+        <v>37.800252</v>
       </c>
       <c r="I3">
-        <v>0.587502675763673</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="J3">
-        <v>0.587502675763673</v>
+        <v>0.4109984227877579</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.340179392409091</v>
+        <v>0.36498</v>
       </c>
       <c r="N3">
-        <v>0.340179392409091</v>
+        <v>1.09494</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7914921854838884</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7914921854838886</v>
       </c>
       <c r="Q3">
-        <v>5.882559101021257</v>
+        <v>4.598778658320001</v>
       </c>
       <c r="R3">
-        <v>5.882559101021257</v>
+        <v>41.38900792488</v>
       </c>
       <c r="S3">
-        <v>0.587502675763673</v>
+        <v>0.3253020398827137</v>
       </c>
       <c r="T3">
-        <v>0.587502675763673</v>
+        <v>0.3253020398827137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>17.59249933333333</v>
+      </c>
+      <c r="H4">
+        <v>52.77749799999999</v>
+      </c>
+      <c r="I4">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="J4">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.096149</v>
+      </c>
+      <c r="N4">
+        <v>0.288447</v>
+      </c>
+      <c r="O4">
+        <v>0.2085078145161115</v>
+      </c>
+      <c r="P4">
+        <v>0.2085078145161116</v>
+      </c>
+      <c r="Q4">
+        <v>1.691501218400667</v>
+      </c>
+      <c r="R4">
+        <v>15.223510965606</v>
+      </c>
+      <c r="S4">
+        <v>0.1196510720980962</v>
+      </c>
+      <c r="T4">
+        <v>0.1196510720980962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17.59249933333333</v>
+      </c>
+      <c r="H5">
+        <v>52.77749799999999</v>
+      </c>
+      <c r="I5">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="J5">
+        <v>0.573844545710543</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.36498</v>
+      </c>
+      <c r="N5">
+        <v>1.09494</v>
+      </c>
+      <c r="O5">
+        <v>0.7914921854838884</v>
+      </c>
+      <c r="P5">
+        <v>0.7914921854838886</v>
+      </c>
+      <c r="Q5">
+        <v>6.42091040668</v>
+      </c>
+      <c r="R5">
+        <v>57.78819366011999</v>
+      </c>
+      <c r="S5">
+        <v>0.4541934736124468</v>
+      </c>
+      <c r="T5">
+        <v>0.4541934736124469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.02822</v>
+      </c>
+      <c r="H6">
+        <v>0.08466</v>
+      </c>
+      <c r="I6">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J6">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.096149</v>
+      </c>
+      <c r="N6">
+        <v>0.288447</v>
+      </c>
+      <c r="O6">
+        <v>0.2085078145161115</v>
+      </c>
+      <c r="P6">
+        <v>0.2085078145161116</v>
+      </c>
+      <c r="Q6">
+        <v>0.00271332478</v>
+      </c>
+      <c r="R6">
+        <v>0.02441992302</v>
+      </c>
+      <c r="S6">
+        <v>0.0001919314129636237</v>
+      </c>
+      <c r="T6">
+        <v>0.0001919314129636237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02822</v>
+      </c>
+      <c r="H7">
+        <v>0.08466</v>
+      </c>
+      <c r="I7">
+        <v>0.0009204998546891057</v>
+      </c>
+      <c r="J7">
+        <v>0.0009204998546891058</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.36498</v>
+      </c>
+      <c r="N7">
+        <v>1.09494</v>
+      </c>
+      <c r="O7">
+        <v>0.7914921854838884</v>
+      </c>
+      <c r="P7">
+        <v>0.7914921854838886</v>
+      </c>
+      <c r="Q7">
+        <v>0.0102997356</v>
+      </c>
+      <c r="R7">
+        <v>0.0926976204</v>
+      </c>
+      <c r="S7">
+        <v>0.000728568441725482</v>
+      </c>
+      <c r="T7">
+        <v>0.0007285684417254822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.411247579741904</v>
-      </c>
-      <c r="H4">
-        <v>0.411247579741904</v>
-      </c>
-      <c r="I4">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="J4">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.340179392409091</v>
-      </c>
-      <c r="N4">
-        <v>0.340179392409091</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.1398979518063101</v>
-      </c>
-      <c r="R4">
-        <v>0.1398979518063101</v>
-      </c>
-      <c r="S4">
-        <v>0.01397188189844037</v>
-      </c>
-      <c r="T4">
-        <v>0.01397188189844037</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.436453</v>
+      </c>
+      <c r="H8">
+        <v>1.309359</v>
+      </c>
+      <c r="I8">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J8">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.096149</v>
+      </c>
+      <c r="N8">
+        <v>0.288447</v>
+      </c>
+      <c r="O8">
+        <v>0.2085078145161115</v>
+      </c>
+      <c r="P8">
+        <v>0.2085078145161116</v>
+      </c>
+      <c r="Q8">
+        <v>0.041964519497</v>
+      </c>
+      <c r="R8">
+        <v>0.377680675473</v>
+      </c>
+      <c r="S8">
+        <v>0.002968428100007528</v>
+      </c>
+      <c r="T8">
+        <v>0.002968428100007529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.436453</v>
+      </c>
+      <c r="H9">
+        <v>1.309359</v>
+      </c>
+      <c r="I9">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="J9">
+        <v>0.01423653164701007</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.36498</v>
+      </c>
+      <c r="N9">
+        <v>1.09494</v>
+      </c>
+      <c r="O9">
+        <v>0.7914921854838884</v>
+      </c>
+      <c r="P9">
+        <v>0.7914921854838886</v>
+      </c>
+      <c r="Q9">
+        <v>0.15929661594</v>
+      </c>
+      <c r="R9">
+        <v>1.43366954346</v>
+      </c>
+      <c r="S9">
+        <v>0.01126810354700254</v>
+      </c>
+      <c r="T9">
+        <v>0.01126810354700255</v>
       </c>
     </row>
   </sheetData>
